--- a/Book.xlsx
+++ b/Book.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -31,19 +29,29 @@
   </si>
   <si>
     <t>تجربة</t>
+  </si>
+  <si>
+    <t>tt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -55,12 +63,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -69,18 +92,15 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -159,7 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -194,7 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,102 +388,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3">
         <v>15.5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3">
         <v>20.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>10.025</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Book.xlsx
+++ b/Book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -25,13 +25,34 @@
     <t>PhPrice</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>fffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
+  </si>
+  <si>
     <t>testname</t>
   </si>
   <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>zzzz</t>
+  </si>
+  <si>
     <t>تجربة</t>
-  </si>
-  <si>
-    <t>tt</t>
   </si>
 </sst>
 </file>
@@ -389,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,10 +435,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +449,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>15.5</v>
+        <v>5.5</v>
       </c>
       <c r="D3">
-        <v>20.25</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +463,108 @@
         <v>5</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>5.7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
         <v>10.025</v>
       </c>
-      <c r="D4">
+      <c r="D9">
         <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Book.xlsx
+++ b/Book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>fffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>testname</t>
@@ -410,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +528,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -533,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>10.025</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -547,10 +556,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -561,9 +570,51 @@
         <v>12</v>
       </c>
       <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>10.025</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
     </row>

--- a/Book.xlsx
+++ b/Book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -28,28 +28,13 @@
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>fffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
+    <t>ffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
   </si>
   <si>
     <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
   <si>
     <t>testname</t>
@@ -419,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,7 +457,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -500,10 +485,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10.025</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -528,10 +513,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -542,79 +527,9 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>10.025</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
         <v>2</v>
       </c>
     </row>
